--- a/配置信息.xlsx
+++ b/配置信息.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\花样机组郑龙安\2018年9月\中捷特殊机型换横屏\金砖横屏程序\zhongjie_pi62020190906\zhongjie_pi620\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="中捷模板机横屏" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="系统参数第9组" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="437">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1420,14 +1426,334 @@
   </si>
   <si>
     <t>1-电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油量报警使能开关</t>
+  </si>
+  <si>
+    <t>二次启动开关</t>
+  </si>
+  <si>
+    <t>剪线后的速度</t>
+  </si>
+  <si>
+    <t>中压脚传感器的类型选择</t>
+  </si>
+  <si>
+    <t>DSP3A-换梭臂电机方向</t>
+  </si>
+  <si>
+    <t>DSP3B-梭盘电机方向</t>
+  </si>
+  <si>
+    <t>DSP3A-换梭臂电机电流级别</t>
+  </si>
+  <si>
+    <t>DSP3B-梭盘电机电流级别</t>
+  </si>
+  <si>
+    <t>125-128为2018-9-12新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原中捷竖屏系统参数第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：梭盘抖动距离，单位是步</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原中捷竖屏系统参数第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：梭盘抖动时间，单位是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭盘移动速度</t>
+  </si>
+  <si>
+    <t>梭盘抖动距离</t>
+  </si>
+  <si>
+    <t>梭盘抖动时间</t>
+  </si>
+  <si>
+    <r>
+      <t>空梭芯丢弃位置，仅当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K164=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时有效，表示把梭芯丢弃到梭盘位置向后偏移的距离，值越大丢的越远</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空梭芯丢弃位置</t>
+  </si>
+  <si>
+    <t>自动换梭使能</t>
+  </si>
+  <si>
+    <t>换梭方式</t>
+  </si>
+  <si>
+    <t>原竖屏K162
+0-底线警报后手动换梭
+报错后，弹出ERROR，用户按下确定以后返回到READY中进行换梭，换梭动作不需要用户再触发，这就是手动启动过程，在这个情况下K163无意义
+1-底线警报时自动换梭
+面板一样报错，但是不等用户按确定，自动启动换梭流程，然后根据K163的值判断，换梭后是报错确认进入ERROR状态（K163=0）（按下确定后到READY）还是直接启动缝制（K163=1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换梭起缝方式</t>
+  </si>
+  <si>
+    <t>空梭芯处理方式</t>
+  </si>
+  <si>
+    <t>梭盘电机零位补偿</t>
+  </si>
+  <si>
+    <t>原竖屏K164
+0-放回梭盘，可能会导致后续换梭取到空梭芯
+*1-放收纳盒（丢弃位置由参数17指定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K163
+自动换梭以后启动方式，仅在K162=1时有效
+0-手动启动
+1-自动启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：因为横屏暂时没有开发自动换梭相关的参数，因此这里先把设置数据暂时放到系统参数第9组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K151，其他-关闭 1-打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机头对接位置修正补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K156，换梭臂电机到机头位置的微调值，根据实际机械安装情况进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换梭对接位置修正补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K157，换梭臂电机到梭盘位置的微调值，根据实际机械安装情况进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸缩气缸到位延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原竖屏K158，换梭臂伸缩气缸延时,单位是ms
+加延时是为了保证动作完成，气缸有动作时间，系统中没有传感器获取位置信息，所以需要延时等待
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换梭臂抓紧气缸延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K159，换梭臂抓紧气缸延时,单位是ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓臂电机工作电流档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K160，主控程序已经未使用，无需关注，电流档位设置在系统参数第1组的参数127、128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K161，*0-梭盘侧 1-机头侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换梭臂停止位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原竖屏K192，原点补偿，根据实际机械安装情况进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原中捷竖屏系统参数第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：梭盘移动速度，值越大越慢</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,8 +1800,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1486,6 +1850,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1550,12 +1919,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,11 +1972,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,7 +1996,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1624,10 +2008,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,20 +2023,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1694,7 +2105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1726,9 +2137,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1760,6 +2172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1935,34 +2348,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:AG210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130:D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="3" customWidth="1"/>
-    <col min="5" max="7" width="5.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.75" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="3" customWidth="1"/>
-    <col min="10" max="25" width="2.625" customWidth="1"/>
-    <col min="26" max="26" width="9.875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="5.25" customWidth="1"/>
-    <col min="29" max="29" width="5.125" customWidth="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1"/>
-    <col min="31" max="31" width="5.375" customWidth="1"/>
-    <col min="32" max="32" width="20.25" customWidth="1"/>
-    <col min="33" max="33" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="5.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="3" customWidth="1"/>
+    <col min="10" max="25" width="2.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="5.21875" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" customWidth="1"/>
+    <col min="30" max="30" width="18.77734375" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" customWidth="1"/>
+    <col min="32" max="32" width="20.21875" customWidth="1"/>
+    <col min="33" max="33" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:33">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -2037,11 +2450,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
@@ -2059,26 +2472,26 @@
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
       <c r="AC4" s="5">
         <v>1</v>
       </c>
@@ -2088,16 +2501,16 @@
       <c r="AE4" s="2">
         <v>41</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AF4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:33">
-      <c r="B5" s="24"/>
-      <c r="C5" s="15"/>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2">
         <v>2</v>
       </c>
@@ -2107,26 +2520,26 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="J5" s="21">
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="25">
         <v>1</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="23"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
       <c r="AC5" s="5">
         <v>2</v>
       </c>
@@ -2136,14 +2549,14 @@
       <c r="AE5" s="2">
         <v>80</v>
       </c>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="29"/>
       <c r="AG5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
-      <c r="B6" s="24"/>
-      <c r="C6" s="15">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="21">
         <v>20</v>
       </c>
       <c r="D6" s="2">
@@ -2158,24 +2571,24 @@
       <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="24"/>
       <c r="AC6" s="5">
         <v>3</v>
       </c>
@@ -2185,14 +2598,14 @@
       <c r="AE6" s="2">
         <v>16</v>
       </c>
-      <c r="AF6" s="16"/>
+      <c r="AF6" s="29"/>
       <c r="AG6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:33">
-      <c r="B7" s="24"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="2">
         <v>4</v>
       </c>
@@ -2202,24 +2615,24 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="J7" s="21">
+      <c r="J7" s="25">
         <v>1000</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
       <c r="AC7" s="5">
         <v>4</v>
       </c>
@@ -2229,14 +2642,14 @@
       <c r="AE7" s="2">
         <v>8</v>
       </c>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="29"/>
       <c r="AG7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="24"/>
-      <c r="C8" s="15">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="21">
         <v>21</v>
       </c>
       <c r="D8" s="2">
@@ -2251,24 +2664,24 @@
       <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="24"/>
       <c r="AC8" s="5">
         <v>5</v>
       </c>
@@ -2278,14 +2691,14 @@
       <c r="AE8" s="2">
         <v>0</v>
       </c>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="29"/>
       <c r="AG8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
-      <c r="B9" s="24"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2">
         <v>6</v>
       </c>
@@ -2295,24 +2708,24 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="J9" s="21">
+      <c r="J9" s="25">
         <v>1000</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="23"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
       <c r="AC9" s="5">
         <v>6</v>
       </c>
@@ -2322,16 +2735,16 @@
       <c r="AE9" s="2">
         <v>44</v>
       </c>
-      <c r="AF9" s="17" t="s">
+      <c r="AF9" s="28" t="s">
         <v>28</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="24"/>
-      <c r="C10" s="15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+      <c r="C10" s="21">
         <v>22</v>
       </c>
       <c r="D10" s="2">
@@ -2346,24 +2759,24 @@
       <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="24"/>
       <c r="Z10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2379,14 +2792,14 @@
       <c r="AE10" s="2">
         <v>80</v>
       </c>
-      <c r="AF10" s="16"/>
+      <c r="AF10" s="29"/>
       <c r="AG10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:33">
-      <c r="B11" s="24"/>
-      <c r="C11" s="15"/>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2">
         <v>8</v>
       </c>
@@ -2396,25 +2809,25 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="J11" s="21">
+      <c r="J11" s="25">
         <f>AA11/(0.09/512)</f>
         <v>2048</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="27"/>
       <c r="Z11" s="3">
         <f>32768*0.225/AA11</f>
         <v>20480</v>
@@ -2431,14 +2844,14 @@
       <c r="AE11" s="2">
         <v>16</v>
       </c>
-      <c r="AF11" s="16"/>
+      <c r="AF11" s="29"/>
       <c r="AG11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:33">
-      <c r="B12" s="24"/>
-      <c r="C12" s="15">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="21">
         <v>23</v>
       </c>
       <c r="D12" s="2">
@@ -2453,24 +2866,24 @@
       <c r="I12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="24"/>
       <c r="AC12" s="5">
         <v>9</v>
       </c>
@@ -2480,14 +2893,14 @@
       <c r="AE12" s="2">
         <v>8</v>
       </c>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="29"/>
       <c r="AG12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:33">
-      <c r="B13" s="24"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="2">
         <v>10</v>
       </c>
@@ -2497,24 +2910,24 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="J13" s="26">
+      <c r="J13" s="30">
         <v>2051</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="3">
         <f>32768*0.225/AA13</f>
         <v>20423.268698060943</v>
@@ -2531,14 +2944,14 @@
       <c r="AE13" s="2">
         <v>0</v>
       </c>
-      <c r="AF13" s="16"/>
+      <c r="AF13" s="29"/>
       <c r="AG13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="24"/>
-      <c r="C14" s="15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="21">
         <v>27</v>
       </c>
       <c r="D14" s="2">
@@ -2553,24 +2966,24 @@
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="24"/>
       <c r="AC14" s="5">
         <v>11</v>
       </c>
@@ -2580,16 +2993,16 @@
       <c r="AE14" s="2">
         <v>44</v>
       </c>
-      <c r="AF14" s="17" t="s">
+      <c r="AF14" s="28" t="s">
         <v>40</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:33">
-      <c r="B15" s="24"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2">
         <v>12</v>
       </c>
@@ -2599,24 +3012,24 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="J15" s="21">
+      <c r="J15" s="25">
         <v>100</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="23"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="27"/>
       <c r="AC15" s="5">
         <v>12</v>
       </c>
@@ -2626,14 +3039,14 @@
       <c r="AE15" s="2">
         <v>80</v>
       </c>
-      <c r="AF15" s="16"/>
+      <c r="AF15" s="29"/>
       <c r="AG15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:33">
-      <c r="B16" s="24"/>
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2">
@@ -2648,26 +3061,26 @@
       <c r="I16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="20" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
       <c r="Z16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2680,14 +3093,14 @@
       <c r="AE16" s="2">
         <v>16</v>
       </c>
-      <c r="AF16" s="16"/>
+      <c r="AF16" s="29"/>
       <c r="AG16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
-      <c r="B17" s="24"/>
-      <c r="C17" s="15"/>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2">
         <v>14</v>
       </c>
@@ -2697,26 +3110,26 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="J17" s="26">
+      <c r="J17" s="30">
         <v>128</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29">
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="34">
         <v>40</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
       <c r="AC17" s="5">
         <v>14</v>
       </c>
@@ -2726,14 +3139,14 @@
       <c r="AE17" s="2">
         <v>8</v>
       </c>
-      <c r="AF17" s="16"/>
+      <c r="AF17" s="29"/>
       <c r="AG17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
-      <c r="B18" s="24"/>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="2">
@@ -2748,26 +3161,26 @@
       <c r="I18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20" t="s">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
       <c r="AC18" s="5">
         <v>15</v>
       </c>
@@ -2777,14 +3190,14 @@
       <c r="AE18" s="2">
         <v>0</v>
       </c>
-      <c r="AF18" s="16"/>
+      <c r="AF18" s="29"/>
       <c r="AG18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
-      <c r="B19" s="24"/>
-      <c r="C19" s="15"/>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="2">
         <v>16</v>
       </c>
@@ -2794,26 +3207,26 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="J19" s="21">
+      <c r="J19" s="25">
         <v>128</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="21">
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="25">
         <v>40</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="23"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
       <c r="AC19" s="5">
         <v>16</v>
       </c>
@@ -2823,16 +3236,16 @@
       <c r="AE19" s="2">
         <v>45</v>
       </c>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="28" t="s">
         <v>55</v>
       </c>
       <c r="AG19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
-      <c r="B20" s="24"/>
-      <c r="C20" s="15" t="s">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2">
@@ -2847,12 +3260,12 @@
       <c r="I20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="7">
         <v>11</v>
       </c>
@@ -2898,14 +3311,14 @@
       <c r="AE20" s="2">
         <v>80</v>
       </c>
-      <c r="AF20" s="16"/>
+      <c r="AF20" s="29"/>
       <c r="AG20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
-      <c r="B21" s="24"/>
-      <c r="C21" s="15"/>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="2">
         <v>18</v>
       </c>
@@ -2915,12 +3328,12 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="J21" s="21">
+      <c r="J21" s="25">
         <v>3</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="1">
         <v>0</v>
       </c>
@@ -2966,14 +3379,14 @@
       <c r="AE21" s="2">
         <v>16</v>
       </c>
-      <c r="AF21" s="16"/>
+      <c r="AF21" s="29"/>
       <c r="AG21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
-      <c r="B22" s="24"/>
-      <c r="C22" s="15" t="s">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="2">
@@ -2988,12 +3401,12 @@
       <c r="I22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="7">
         <v>11</v>
       </c>
@@ -3039,14 +3452,14 @@
       <c r="AE22" s="2">
         <v>8</v>
       </c>
-      <c r="AF22" s="16"/>
+      <c r="AF22" s="29"/>
       <c r="AG22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
-      <c r="B23" s="24"/>
-      <c r="C23" s="15"/>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="2">
         <v>20</v>
       </c>
@@ -3056,12 +3469,12 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="J23" s="21">
+      <c r="J23" s="25">
         <v>3</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="1">
         <v>1</v>
       </c>
@@ -3107,16 +3520,16 @@
       <c r="AE23" s="2">
         <v>0</v>
       </c>
-      <c r="AF23" s="16"/>
+      <c r="AF23" s="29"/>
       <c r="AG23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="2">
@@ -3134,26 +3547,26 @@
       <c r="I24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20" t="s">
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
       <c r="AC24" s="5">
         <v>21</v>
       </c>
@@ -3163,16 +3576,16 @@
       <c r="AE24" s="2">
         <v>45</v>
       </c>
-      <c r="AF24" s="17" t="s">
+      <c r="AF24" s="28" t="s">
         <v>68</v>
       </c>
       <c r="AG24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
-      <c r="B25" s="24"/>
-      <c r="C25" s="15"/>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="2">
         <v>22</v>
       </c>
@@ -3182,26 +3595,26 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="J25" s="21">
+      <c r="J25" s="25">
         <v>1</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="21">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="25">
         <v>1</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="23"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="27"/>
       <c r="AC25" s="5">
         <v>22</v>
       </c>
@@ -3211,14 +3624,14 @@
       <c r="AE25" s="2">
         <v>80</v>
       </c>
-      <c r="AF25" s="16"/>
+      <c r="AF25" s="29"/>
       <c r="AG25" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
-      <c r="B26" s="24"/>
-      <c r="C26" s="15">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="21">
         <v>20</v>
       </c>
       <c r="D26" s="2">
@@ -3233,24 +3646,24 @@
       <c r="I26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="24"/>
       <c r="AC26" s="5">
         <v>23</v>
       </c>
@@ -3260,14 +3673,14 @@
       <c r="AE26" s="2">
         <v>16</v>
       </c>
-      <c r="AF26" s="16"/>
+      <c r="AF26" s="29"/>
       <c r="AG26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
-      <c r="B27" s="24"/>
-      <c r="C27" s="15"/>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="2">
         <v>24</v>
       </c>
@@ -3277,24 +3690,24 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="J27" s="21">
+      <c r="J27" s="25">
         <v>400</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="23"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
       <c r="AC27" s="5">
         <v>24</v>
       </c>
@@ -3304,14 +3717,14 @@
       <c r="AE27" s="2">
         <v>8</v>
       </c>
-      <c r="AF27" s="16"/>
+      <c r="AF27" s="29"/>
       <c r="AG27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
-      <c r="B28" s="24"/>
-      <c r="C28" s="15">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="35"/>
+      <c r="C28" s="21">
         <v>21</v>
       </c>
       <c r="D28" s="2">
@@ -3326,24 +3739,24 @@
       <c r="I28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="24"/>
       <c r="AC28" s="5">
         <v>25</v>
       </c>
@@ -3353,14 +3766,14 @@
       <c r="AE28" s="2">
         <v>0</v>
       </c>
-      <c r="AF28" s="16"/>
+      <c r="AF28" s="29"/>
       <c r="AG28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
-      <c r="B29" s="24"/>
-      <c r="C29" s="15"/>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2">
         <v>26</v>
       </c>
@@ -3370,24 +3783,24 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="J29" s="21">
+      <c r="J29" s="25">
         <v>400</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="23"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="27"/>
       <c r="AC29" s="5">
         <v>26</v>
       </c>
@@ -3397,16 +3810,16 @@
       <c r="AE29" s="2">
         <v>45</v>
       </c>
-      <c r="AF29" s="17" t="s">
+      <c r="AF29" s="28" t="s">
         <v>74</v>
       </c>
       <c r="AG29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
-      <c r="B30" s="24"/>
-      <c r="C30" s="15">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="21">
         <v>22</v>
       </c>
       <c r="D30" s="2">
@@ -3421,24 +3834,24 @@
       <c r="I30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="24"/>
       <c r="AC30" s="5">
         <v>27</v>
       </c>
@@ -3448,14 +3861,14 @@
       <c r="AE30" s="2">
         <v>80</v>
       </c>
-      <c r="AF30" s="16"/>
+      <c r="AF30" s="29"/>
       <c r="AG30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
-      <c r="B31" s="24"/>
-      <c r="C31" s="15"/>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="2">
         <v>28</v>
       </c>
@@ -3465,24 +3878,24 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="J31" s="21">
+      <c r="J31" s="25">
         <v>512</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="23"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="27"/>
       <c r="Z31" s="3" t="s">
         <v>367</v>
       </c>
@@ -3495,14 +3908,14 @@
       <c r="AE31" s="2">
         <v>16</v>
       </c>
-      <c r="AF31" s="16"/>
+      <c r="AF31" s="29"/>
       <c r="AG31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
-      <c r="B32" s="24"/>
-      <c r="C32" s="15">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="35"/>
+      <c r="C32" s="21">
         <v>23</v>
       </c>
       <c r="D32" s="2">
@@ -3517,24 +3930,24 @@
       <c r="I32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="25"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="24"/>
       <c r="AC32" s="5">
         <v>29</v>
       </c>
@@ -3544,14 +3957,14 @@
       <c r="AE32" s="2">
         <v>8</v>
       </c>
-      <c r="AF32" s="16"/>
+      <c r="AF32" s="29"/>
       <c r="AG32" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:33">
-      <c r="B33" s="24"/>
-      <c r="C33" s="15"/>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="35"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="2">
         <v>30</v>
       </c>
@@ -3561,24 +3974,24 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="J33" s="26">
+      <c r="J33" s="30">
         <v>512</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="28"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="32"/>
       <c r="AC33" s="5">
         <v>30</v>
       </c>
@@ -3588,14 +4001,14 @@
       <c r="AE33" s="2">
         <v>0</v>
       </c>
-      <c r="AF33" s="16"/>
+      <c r="AF33" s="29"/>
       <c r="AG33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:33">
-      <c r="B34" s="24"/>
-      <c r="C34" s="15">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="35"/>
+      <c r="C34" s="21">
         <v>27</v>
       </c>
       <c r="D34" s="2">
@@ -3610,24 +4023,24 @@
       <c r="I34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="25"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="24"/>
       <c r="AC34" s="5">
         <v>31</v>
       </c>
@@ -3637,16 +4050,16 @@
       <c r="AE34" s="2">
         <v>45</v>
       </c>
-      <c r="AF34" s="17" t="s">
+      <c r="AF34" s="28" t="s">
         <v>81</v>
       </c>
       <c r="AG34" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:33">
-      <c r="B35" s="24"/>
-      <c r="C35" s="15"/>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="35"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="2">
         <v>32</v>
       </c>
@@ -3656,24 +4069,24 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="J35" s="21">
+      <c r="J35" s="25">
         <v>100</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="23"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="27"/>
       <c r="AC35" s="5">
         <v>32</v>
       </c>
@@ -3683,14 +4096,14 @@
       <c r="AE35" s="2">
         <v>80</v>
       </c>
-      <c r="AF35" s="16"/>
+      <c r="AF35" s="29"/>
       <c r="AG35" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:33">
-      <c r="B36" s="24"/>
-      <c r="C36" s="15" t="s">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="35"/>
+      <c r="C36" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="2">
@@ -3705,26 +4118,26 @@
       <c r="I36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="20" t="s">
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
       <c r="AC36" s="5">
         <v>33</v>
       </c>
@@ -3734,14 +4147,14 @@
       <c r="AE36" s="2">
         <v>16</v>
       </c>
-      <c r="AF36" s="16"/>
+      <c r="AF36" s="29"/>
       <c r="AG36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:33">
-      <c r="B37" s="24"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" s="35"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="2">
         <v>34</v>
       </c>
@@ -3751,26 +4164,26 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="J37" s="26">
+      <c r="J37" s="30">
         <v>128</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="29">
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="34">
         <v>40</v>
       </c>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
       <c r="AC37" s="5">
         <v>34</v>
       </c>
@@ -3780,14 +4193,14 @@
       <c r="AE37" s="2">
         <v>8</v>
       </c>
-      <c r="AF37" s="16"/>
+      <c r="AF37" s="29"/>
       <c r="AG37" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:33">
-      <c r="B38" s="24"/>
-      <c r="C38" s="15" t="s">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="C38" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="2">
@@ -3802,26 +4215,26 @@
       <c r="I38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="20" t="s">
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
       <c r="AC38" s="5">
         <v>35</v>
       </c>
@@ -3831,14 +4244,14 @@
       <c r="AE38" s="2">
         <v>0</v>
       </c>
-      <c r="AF38" s="16"/>
+      <c r="AF38" s="29"/>
       <c r="AG38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:33">
-      <c r="B39" s="24"/>
-      <c r="C39" s="15"/>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="2">
         <v>36</v>
       </c>
@@ -3848,26 +4261,26 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="J39" s="21">
+      <c r="J39" s="25">
         <v>128</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="15">
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="21">
         <v>40</v>
       </c>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
       <c r="AC39" s="5">
         <v>36</v>
       </c>
@@ -3877,16 +4290,16 @@
       <c r="AE39" s="2">
         <v>46</v>
       </c>
-      <c r="AF39" s="17" t="s">
+      <c r="AF39" s="28" t="s">
         <v>87</v>
       </c>
       <c r="AG39" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:33">
-      <c r="B40" s="24"/>
-      <c r="C40" s="15" t="s">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="2">
@@ -3901,12 +4314,12 @@
       <c r="I40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="7">
         <v>11</v>
       </c>
@@ -3952,14 +4365,14 @@
       <c r="AE40" s="2">
         <v>80</v>
       </c>
-      <c r="AF40" s="16"/>
+      <c r="AF40" s="29"/>
       <c r="AG40" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:33">
-      <c r="B41" s="24"/>
-      <c r="C41" s="15"/>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="2">
         <v>38</v>
       </c>
@@ -3969,12 +4382,12 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="J41" s="21">
+      <c r="J41" s="25">
         <v>1</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="1">
         <v>0</v>
       </c>
@@ -4020,14 +4433,14 @@
       <c r="AE41" s="2">
         <v>16</v>
       </c>
-      <c r="AF41" s="16"/>
+      <c r="AF41" s="29"/>
       <c r="AG41" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:33">
-      <c r="B42" s="24"/>
-      <c r="C42" s="15" t="s">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+      <c r="C42" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D42" s="2">
@@ -4042,12 +4455,12 @@
       <c r="I42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="7">
         <v>11</v>
       </c>
@@ -4093,14 +4506,14 @@
       <c r="AE42" s="2">
         <v>8</v>
       </c>
-      <c r="AF42" s="16"/>
+      <c r="AF42" s="29"/>
       <c r="AG42" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:33">
-      <c r="B43" s="24"/>
-      <c r="C43" s="15"/>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="35"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="2">
         <v>40</v>
       </c>
@@ -4110,12 +4523,12 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="J43" s="21">
+      <c r="J43" s="25">
         <v>3</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="23"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="1">
         <v>1</v>
       </c>
@@ -4161,12 +4574,12 @@
       <c r="AE43" s="2">
         <v>0</v>
       </c>
-      <c r="AF43" s="16"/>
+      <c r="AF43" s="29"/>
       <c r="AG43" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:33">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
         <v>92</v>
@@ -4188,14 +4601,14 @@
       <c r="AE44" s="2">
         <v>47</v>
       </c>
-      <c r="AF44" s="17" t="s">
+      <c r="AF44" s="28" t="s">
         <v>94</v>
       </c>
       <c r="AG44" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:33">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>95</v>
@@ -4217,12 +4630,12 @@
       <c r="AE45" s="2">
         <v>50</v>
       </c>
-      <c r="AF45" s="16"/>
+      <c r="AF45" s="29"/>
       <c r="AG45" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>97</v>
@@ -4244,12 +4657,12 @@
       <c r="AE46" s="2">
         <v>16</v>
       </c>
-      <c r="AF46" s="16"/>
+      <c r="AF46" s="29"/>
       <c r="AG46" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:33">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>99</v>
@@ -4271,12 +4684,12 @@
       <c r="AE47" s="2">
         <v>8</v>
       </c>
-      <c r="AF47" s="16"/>
+      <c r="AF47" s="29"/>
       <c r="AG47" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:33">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>101</v>
@@ -4304,12 +4717,12 @@
       <c r="AE48" s="2">
         <v>0</v>
       </c>
-      <c r="AF48" s="16"/>
+      <c r="AF48" s="29"/>
       <c r="AG48" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:33">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>105</v>
@@ -4331,14 +4744,14 @@
       <c r="AE49" s="2">
         <v>48</v>
       </c>
-      <c r="AF49" s="17" t="s">
+      <c r="AF49" s="28" t="s">
         <v>107</v>
       </c>
       <c r="AG49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:33">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="14" t="s">
         <v>392</v>
@@ -4360,12 +4773,12 @@
       <c r="AE50" s="2">
         <v>50</v>
       </c>
-      <c r="AF50" s="16"/>
+      <c r="AF50" s="29"/>
       <c r="AG50" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:33">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>109</v>
@@ -4387,12 +4800,12 @@
       <c r="AE51" s="2">
         <v>16</v>
       </c>
-      <c r="AF51" s="16"/>
+      <c r="AF51" s="29"/>
       <c r="AG51" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:33">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>111</v>
@@ -4414,12 +4827,12 @@
       <c r="AE52" s="2">
         <v>8</v>
       </c>
-      <c r="AF52" s="16"/>
+      <c r="AF52" s="29"/>
       <c r="AG52" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:33">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>113</v>
@@ -4446,12 +4859,12 @@
       <c r="AE53" s="2">
         <v>0</v>
       </c>
-      <c r="AF53" s="16"/>
+      <c r="AF53" s="29"/>
       <c r="AG53" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:33">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>115</v>
@@ -4473,14 +4886,14 @@
       <c r="AE54" s="2">
         <v>48</v>
       </c>
-      <c r="AF54" s="17" t="s">
+      <c r="AF54" s="28" t="s">
         <v>117</v>
       </c>
       <c r="AG54" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:33">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
         <v>118</v>
@@ -4503,12 +4916,12 @@
       <c r="AE55" s="2">
         <v>50</v>
       </c>
-      <c r="AF55" s="16"/>
+      <c r="AF55" s="29"/>
       <c r="AG55" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:33">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
         <v>120</v>
@@ -4525,10 +4938,10 @@
       <c r="AC56" s="5"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="2"/>
-      <c r="AF56" s="16"/>
+      <c r="AF56" s="29"/>
       <c r="AG56" s="5"/>
     </row>
-    <row r="57" spans="2:33">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
         <v>121</v>
@@ -4551,12 +4964,12 @@
       <c r="AE57" s="2">
         <v>16</v>
       </c>
-      <c r="AF57" s="16"/>
+      <c r="AF57" s="29"/>
       <c r="AG57" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:33">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>123</v>
@@ -4579,12 +4992,12 @@
       <c r="AE58" s="2">
         <v>8</v>
       </c>
-      <c r="AF58" s="16"/>
+      <c r="AF58" s="29"/>
       <c r="AG58" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:33">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1" t="s">
         <v>125</v>
@@ -4607,12 +5020,12 @@
       <c r="AE59" s="2">
         <v>0</v>
       </c>
-      <c r="AF59" s="16"/>
+      <c r="AF59" s="29"/>
       <c r="AG59" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:33">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>127</v>
@@ -4635,14 +5048,14 @@
       <c r="AE60" s="2">
         <v>52</v>
       </c>
-      <c r="AF60" s="17" t="s">
+      <c r="AF60" s="28" t="s">
         <v>129</v>
       </c>
       <c r="AG60" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:33">
+    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
         <v>130</v>
@@ -4665,12 +5078,12 @@
       <c r="AE61" s="2">
         <v>50</v>
       </c>
-      <c r="AF61" s="16"/>
+      <c r="AF61" s="29"/>
       <c r="AG61" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:33">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
         <v>132</v>
@@ -4693,12 +5106,12 @@
       <c r="AE62" s="2">
         <v>16</v>
       </c>
-      <c r="AF62" s="16"/>
+      <c r="AF62" s="29"/>
       <c r="AG62" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:33">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
         <v>134</v>
@@ -4721,12 +5134,12 @@
       <c r="AE63" s="2">
         <v>8</v>
       </c>
-      <c r="AF63" s="16"/>
+      <c r="AF63" s="29"/>
       <c r="AG63" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:33">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
         <v>136</v>
@@ -4749,12 +5162,12 @@
       <c r="AE64" s="2">
         <v>0</v>
       </c>
-      <c r="AF64" s="16"/>
+      <c r="AF64" s="29"/>
       <c r="AG64" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:33">
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
         <v>138</v>
@@ -4777,14 +5190,14 @@
       <c r="AE65" s="2">
         <v>36</v>
       </c>
-      <c r="AF65" s="17" t="s">
+      <c r="AF65" s="28" t="s">
         <v>140</v>
       </c>
       <c r="AG65" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:33">
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
         <v>141</v>
@@ -4807,14 +5220,14 @@
       <c r="AE66" s="2">
         <v>50</v>
       </c>
-      <c r="AF66" s="17"/>
+      <c r="AF66" s="28"/>
       <c r="AG66" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:33">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="21" t="s">
         <v>143</v>
       </c>
       <c r="D67" s="2">
@@ -4835,14 +5248,14 @@
       <c r="AE67" s="2">
         <v>16</v>
       </c>
-      <c r="AF67" s="17"/>
+      <c r="AF67" s="28"/>
       <c r="AG67" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:33">
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="2">
         <v>65</v>
       </c>
@@ -4861,14 +5274,14 @@
       <c r="AE68" s="2">
         <v>8</v>
       </c>
-      <c r="AF68" s="17"/>
+      <c r="AF68" s="28"/>
       <c r="AG68" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:33">
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="2">
@@ -4889,14 +5302,14 @@
       <c r="AE69" s="2">
         <v>0</v>
       </c>
-      <c r="AF69" s="17"/>
+      <c r="AF69" s="28"/>
       <c r="AG69" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:33">
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
-      <c r="C70" s="15"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="2">
         <v>67</v>
       </c>
@@ -4915,16 +5328,16 @@
       <c r="AE70" s="2">
         <v>36</v>
       </c>
-      <c r="AF70" s="17" t="s">
+      <c r="AF70" s="28" t="s">
         <v>151</v>
       </c>
       <c r="AG70" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:33">
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="21" t="s">
         <v>147</v>
       </c>
       <c r="D71" s="2">
@@ -4945,14 +5358,14 @@
       <c r="AE71" s="2">
         <v>50</v>
       </c>
-      <c r="AF71" s="17"/>
+      <c r="AF71" s="28"/>
       <c r="AG71" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="2:33">
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
-      <c r="C72" s="15"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="2">
         <v>69</v>
       </c>
@@ -4970,14 +5383,14 @@
       <c r="AE72" s="2">
         <v>16</v>
       </c>
-      <c r="AF72" s="17"/>
+      <c r="AF72" s="28"/>
       <c r="AG72" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:33">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="21" t="s">
         <v>149</v>
       </c>
       <c r="D73" s="2">
@@ -4997,14 +5410,14 @@
       <c r="AE73" s="2">
         <v>8</v>
       </c>
-      <c r="AF73" s="17"/>
+      <c r="AF73" s="28"/>
       <c r="AG73" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="2:33">
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
-      <c r="C74" s="15"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="2">
         <v>71</v>
       </c>
@@ -5022,14 +5435,14 @@
       <c r="AE74" s="2">
         <v>0</v>
       </c>
-      <c r="AF74" s="17"/>
+      <c r="AF74" s="28"/>
       <c r="AG74" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:33">
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="21" t="s">
         <v>152</v>
       </c>
       <c r="D75" s="2">
@@ -5049,16 +5462,16 @@
       <c r="AE75" s="2">
         <v>36</v>
       </c>
-      <c r="AF75" s="17" t="s">
+      <c r="AF75" s="28" t="s">
         <v>162</v>
       </c>
       <c r="AG75" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:33">
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
-      <c r="C76" s="15"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="2">
         <v>73</v>
       </c>
@@ -5076,14 +5489,14 @@
       <c r="AE76" s="2">
         <v>50</v>
       </c>
-      <c r="AF76" s="17"/>
+      <c r="AF76" s="28"/>
       <c r="AG76" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:33">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="21" t="s">
         <v>154</v>
       </c>
       <c r="D77" s="2">
@@ -5103,14 +5516,14 @@
       <c r="AE77" s="2">
         <v>16</v>
       </c>
-      <c r="AF77" s="17"/>
+      <c r="AF77" s="28"/>
       <c r="AG77" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:33">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="2">
         <v>75</v>
       </c>
@@ -5127,14 +5540,14 @@
       <c r="AE78" s="2">
         <v>8</v>
       </c>
-      <c r="AF78" s="17"/>
+      <c r="AF78" s="28"/>
       <c r="AG78" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:33">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="21" t="s">
         <v>156</v>
       </c>
       <c r="D79" s="2">
@@ -5153,14 +5566,14 @@
       <c r="AE79" s="2">
         <v>0</v>
       </c>
-      <c r="AF79" s="17"/>
+      <c r="AF79" s="28"/>
       <c r="AG79" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="2:33">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="2">
         <v>77</v>
       </c>
@@ -5178,16 +5591,16 @@
       <c r="AE80" s="2">
         <v>35</v>
       </c>
-      <c r="AF80" s="17" t="s">
+      <c r="AF80" s="28" t="s">
         <v>170</v>
       </c>
       <c r="AG80" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:33">
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="21" t="s">
         <v>158</v>
       </c>
       <c r="D81" s="2">
@@ -5207,14 +5620,14 @@
       <c r="AE81" s="2">
         <v>50</v>
       </c>
-      <c r="AF81" s="17"/>
+      <c r="AF81" s="28"/>
       <c r="AG81" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:33">
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="2">
         <v>79</v>
       </c>
@@ -5232,14 +5645,14 @@
       <c r="AE82" s="2">
         <v>16</v>
       </c>
-      <c r="AF82" s="17"/>
+      <c r="AF82" s="28"/>
       <c r="AG82" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:33">
+    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="21" t="s">
         <v>160</v>
       </c>
       <c r="D83" s="2">
@@ -5259,14 +5672,14 @@
       <c r="AE83" s="2">
         <v>8</v>
       </c>
-      <c r="AF83" s="17"/>
+      <c r="AF83" s="28"/>
       <c r="AG83" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:33">
+    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="2">
         <v>81</v>
       </c>
@@ -5284,14 +5697,14 @@
       <c r="AE84" s="2">
         <v>0</v>
       </c>
-      <c r="AF84" s="17"/>
+      <c r="AF84" s="28"/>
       <c r="AG84" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:33">
+    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="21" t="s">
         <v>163</v>
       </c>
       <c r="D85" s="2">
@@ -5311,16 +5724,16 @@
       <c r="AE85" s="2">
         <v>35</v>
       </c>
-      <c r="AF85" s="17" t="s">
+      <c r="AF85" s="28" t="s">
         <v>176</v>
       </c>
       <c r="AG85" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:33">
+    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="2">
         <v>83</v>
       </c>
@@ -5338,14 +5751,14 @@
       <c r="AE86" s="2">
         <v>50</v>
       </c>
-      <c r="AF86" s="17"/>
+      <c r="AF86" s="28"/>
       <c r="AG86" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:33">
+    <row r="87" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="21" t="s">
         <v>165</v>
       </c>
       <c r="D87" s="2">
@@ -5365,14 +5778,14 @@
       <c r="AE87" s="2">
         <v>16</v>
       </c>
-      <c r="AF87" s="17"/>
+      <c r="AF87" s="28"/>
       <c r="AG87" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:33">
+    <row r="88" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="2">
         <v>85</v>
       </c>
@@ -5390,16 +5803,16 @@
       <c r="AE88" s="2">
         <v>8</v>
       </c>
-      <c r="AF88" s="17"/>
+      <c r="AF88" s="28"/>
       <c r="AG88" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:33">
-      <c r="B89" s="15" t="s">
+    <row r="89" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B89" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="21" t="s">
         <v>362</v>
       </c>
       <c r="D89" s="2">
@@ -5419,14 +5832,14 @@
       <c r="AE89" s="2">
         <v>0</v>
       </c>
-      <c r="AF89" s="17"/>
+      <c r="AF89" s="28"/>
       <c r="AG89" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:33">
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+    <row r="90" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="2">
         <v>87</v>
       </c>
@@ -5444,16 +5857,16 @@
       <c r="AE90" s="2">
         <v>36</v>
       </c>
-      <c r="AF90" s="17" t="s">
+      <c r="AF90" s="28" t="s">
         <v>182</v>
       </c>
       <c r="AG90" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:33">
-      <c r="B91" s="15"/>
-      <c r="C91" s="15" t="s">
+    <row r="91" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D91" s="2">
@@ -5473,14 +5886,14 @@
       <c r="AE91" s="2">
         <v>50</v>
       </c>
-      <c r="AF91" s="17"/>
+      <c r="AF91" s="28"/>
       <c r="AG91" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="2:33">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
+    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="2">
         <v>89</v>
       </c>
@@ -5498,14 +5911,14 @@
       <c r="AE92" s="2">
         <v>16</v>
       </c>
-      <c r="AF92" s="17"/>
+      <c r="AF92" s="28"/>
       <c r="AG92" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:33">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15" t="s">
+    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="2">
@@ -5525,14 +5938,14 @@
       <c r="AE93" s="2">
         <v>8</v>
       </c>
-      <c r="AF93" s="17"/>
+      <c r="AF93" s="28"/>
       <c r="AG93" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="2:33">
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
+    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="2">
         <v>91</v>
       </c>
@@ -5550,14 +5963,14 @@
       <c r="AE94" s="2">
         <v>0</v>
       </c>
-      <c r="AF94" s="17"/>
+      <c r="AF94" s="28"/>
       <c r="AG94" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:33">
-      <c r="B95" s="15"/>
-      <c r="C95" s="15">
+    <row r="95" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B95" s="21"/>
+      <c r="C95" s="21">
         <v>20</v>
       </c>
       <c r="D95" s="2">
@@ -5577,16 +5990,16 @@
       <c r="AE95" s="2">
         <v>32</v>
       </c>
-      <c r="AF95" s="17" t="s">
+      <c r="AF95" s="28" t="s">
         <v>188</v>
       </c>
       <c r="AG95" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:33">
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
+    <row r="96" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="2">
         <v>93</v>
       </c>
@@ -5604,14 +6017,14 @@
       <c r="AE96" s="2">
         <v>64</v>
       </c>
-      <c r="AF96" s="17"/>
+      <c r="AF96" s="28"/>
       <c r="AG96" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="2:33">
-      <c r="B97" s="15"/>
-      <c r="C97" s="15">
+    <row r="97" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B97" s="21"/>
+      <c r="C97" s="21">
         <v>21</v>
       </c>
       <c r="D97" s="2">
@@ -5631,14 +6044,14 @@
       <c r="AE97" s="2">
         <v>8</v>
       </c>
-      <c r="AF97" s="17"/>
+      <c r="AF97" s="28"/>
       <c r="AG97" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:33">
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="2">
         <v>95</v>
       </c>
@@ -5656,14 +6069,14 @@
       <c r="AE98" s="2">
         <v>4</v>
       </c>
-      <c r="AF98" s="17"/>
+      <c r="AF98" s="28"/>
       <c r="AG98" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="2:33">
-      <c r="B99" s="15"/>
-      <c r="C99" s="15">
+    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B99" s="21"/>
+      <c r="C99" s="21">
         <v>22</v>
       </c>
       <c r="D99" s="2">
@@ -5683,14 +6096,14 @@
       <c r="AE99" s="2">
         <v>0</v>
       </c>
-      <c r="AF99" s="17"/>
+      <c r="AF99" s="28"/>
       <c r="AG99" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:33">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="2">
         <v>97</v>
       </c>
@@ -5708,16 +6121,16 @@
       <c r="AE100" s="2">
         <v>32</v>
       </c>
-      <c r="AF100" s="17" t="s">
+      <c r="AF100" s="28" t="s">
         <v>194</v>
       </c>
       <c r="AG100" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:33">
-      <c r="B101" s="15"/>
-      <c r="C101" s="15">
+    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B101" s="21"/>
+      <c r="C101" s="21">
         <v>23</v>
       </c>
       <c r="D101" s="2">
@@ -5737,14 +6150,14 @@
       <c r="AE101" s="2">
         <v>64</v>
       </c>
-      <c r="AF101" s="17"/>
+      <c r="AF101" s="28"/>
       <c r="AG101" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:33">
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="2">
         <v>99</v>
       </c>
@@ -5762,14 +6175,14 @@
       <c r="AE102" s="2">
         <v>8</v>
       </c>
-      <c r="AF102" s="17"/>
+      <c r="AF102" s="28"/>
       <c r="AG102" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="2:33">
-      <c r="B103" s="15"/>
-      <c r="C103" s="15">
+    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21">
         <v>27</v>
       </c>
       <c r="D103" s="2">
@@ -5789,14 +6202,14 @@
       <c r="AE103" s="2">
         <v>4</v>
       </c>
-      <c r="AF103" s="17"/>
+      <c r="AF103" s="28"/>
       <c r="AG103" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="2:33">
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="2">
         <v>101</v>
       </c>
@@ -5814,14 +6227,14 @@
       <c r="AE104" s="2">
         <v>0</v>
       </c>
-      <c r="AF104" s="17"/>
+      <c r="AF104" s="28"/>
       <c r="AG104" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="2:33">
-      <c r="B105" s="15"/>
-      <c r="C105" s="15" t="s">
+    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D105" s="2">
@@ -5841,16 +6254,16 @@
       <c r="AE105" s="2">
         <v>32</v>
       </c>
-      <c r="AF105" s="17" t="s">
+      <c r="AF105" s="28" t="s">
         <v>200</v>
       </c>
       <c r="AG105" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:33">
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="2">
         <v>103</v>
       </c>
@@ -5868,14 +6281,14 @@
       <c r="AE106" s="2">
         <v>64</v>
       </c>
-      <c r="AF106" s="17"/>
+      <c r="AF106" s="28"/>
       <c r="AG106" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:33">
-      <c r="B107" s="15"/>
-      <c r="C107" s="15" t="s">
+    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B107" s="21"/>
+      <c r="C107" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="2">
@@ -5895,14 +6308,14 @@
       <c r="AE107" s="2">
         <v>8</v>
       </c>
-      <c r="AF107" s="17"/>
+      <c r="AF107" s="28"/>
       <c r="AG107" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="2:33">
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="2">
         <v>105</v>
       </c>
@@ -5920,14 +6333,14 @@
       <c r="AE108" s="2">
         <v>4</v>
       </c>
-      <c r="AF108" s="17"/>
+      <c r="AF108" s="28"/>
       <c r="AG108" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="2:33">
-      <c r="B109" s="15"/>
-      <c r="C109" s="15" t="s">
+    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D109" s="2">
@@ -5947,14 +6360,14 @@
       <c r="AE109" s="2">
         <v>0</v>
       </c>
-      <c r="AF109" s="17"/>
+      <c r="AF109" s="28"/>
       <c r="AG109" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="2:33">
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="2">
         <v>107</v>
       </c>
@@ -5972,16 +6385,16 @@
       <c r="AE110" s="2">
         <v>32</v>
       </c>
-      <c r="AF110" s="17" t="s">
+      <c r="AF110" s="28" t="s">
         <v>206</v>
       </c>
       <c r="AG110" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:33">
-      <c r="B111" s="15"/>
-      <c r="C111" s="15" t="s">
+    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D111" s="2">
@@ -6001,14 +6414,14 @@
       <c r="AE111" s="2">
         <v>64</v>
       </c>
-      <c r="AF111" s="17"/>
+      <c r="AF111" s="28"/>
       <c r="AG111" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="2:33">
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="2">
         <v>109</v>
       </c>
@@ -6026,12 +6439,12 @@
       <c r="AE112" s="2">
         <v>8</v>
       </c>
-      <c r="AF112" s="17"/>
+      <c r="AF112" s="28"/>
       <c r="AG112" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="2:33">
+    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
         <v>379</v>
@@ -6051,12 +6464,12 @@
       <c r="AE113" s="2">
         <v>4</v>
       </c>
-      <c r="AF113" s="17"/>
+      <c r="AF113" s="28"/>
       <c r="AG113" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="2:33">
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B114" s="13"/>
       <c r="C114" s="13" t="s">
         <v>380</v>
@@ -6076,12 +6489,12 @@
       <c r="AE114" s="2">
         <v>0</v>
       </c>
-      <c r="AF114" s="17"/>
+      <c r="AF114" s="28"/>
       <c r="AG114" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:33">
+    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
       <c r="C115" s="13" t="s">
         <v>381</v>
@@ -6101,14 +6514,14 @@
       <c r="AE115" s="2">
         <v>32</v>
       </c>
-      <c r="AF115" s="17" t="s">
+      <c r="AF115" s="28" t="s">
         <v>212</v>
       </c>
       <c r="AG115" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:33">
+    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
         <v>382</v>
@@ -6128,12 +6541,12 @@
       <c r="AE116" s="2">
         <v>64</v>
       </c>
-      <c r="AF116" s="17"/>
+      <c r="AF116" s="28"/>
       <c r="AG116" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:33">
+    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
       <c r="C117" s="13" t="s">
         <v>383</v>
@@ -6158,12 +6571,12 @@
       <c r="AE117" s="2">
         <v>8</v>
       </c>
-      <c r="AF117" s="17"/>
+      <c r="AF117" s="28"/>
       <c r="AG117" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="2:33">
+    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
         <v>386</v>
@@ -6183,12 +6596,12 @@
       <c r="AE118" s="2">
         <v>4</v>
       </c>
-      <c r="AF118" s="17"/>
+      <c r="AF118" s="28"/>
       <c r="AG118" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="2:33">
+    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
         <v>387</v>
@@ -6208,12 +6621,12 @@
       <c r="AE119" s="2">
         <v>0</v>
       </c>
-      <c r="AF119" s="17"/>
+      <c r="AF119" s="28"/>
       <c r="AG119" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:33">
+    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
         <v>388</v>
@@ -6233,14 +6646,14 @@
       <c r="AE120" s="2">
         <v>32</v>
       </c>
-      <c r="AF120" s="17" t="s">
+      <c r="AF120" s="28" t="s">
         <v>218</v>
       </c>
       <c r="AG120" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:33">
+    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
       <c r="C121" s="13" t="s">
         <v>389</v>
@@ -6260,12 +6673,12 @@
       <c r="AE121" s="2">
         <v>64</v>
       </c>
-      <c r="AF121" s="17"/>
+      <c r="AF121" s="28"/>
       <c r="AG121" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:33">
+    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
       <c r="C122" s="13" t="s">
         <v>390</v>
@@ -6285,12 +6698,12 @@
       <c r="AE122" s="2">
         <v>8</v>
       </c>
-      <c r="AF122" s="17"/>
+      <c r="AF122" s="28"/>
       <c r="AG122" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:33">
+    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
       <c r="C123" s="13" t="s">
         <v>391</v>
@@ -6310,13 +6723,16 @@
       <c r="AE123" s="2">
         <v>4</v>
       </c>
-      <c r="AF123" s="17"/>
+      <c r="AF123" s="28"/>
       <c r="AG123" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="2:33">
+    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="D124" s="13">
         <v>121</v>
       </c>
@@ -6330,13 +6746,16 @@
       <c r="AE124" s="2">
         <v>0</v>
       </c>
-      <c r="AF124" s="17"/>
+      <c r="AF124" s="28"/>
       <c r="AG124" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="2:33">
+    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="D125" s="13">
         <v>122</v>
       </c>
@@ -6350,15 +6769,18 @@
       <c r="AE125" s="2">
         <v>30</v>
       </c>
-      <c r="AF125" s="16" t="s">
+      <c r="AF125" s="29" t="s">
         <v>224</v>
       </c>
       <c r="AG125" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:33">
+    <row r="126" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="D126" s="13">
         <v>123</v>
       </c>
@@ -6372,13 +6794,16 @@
       <c r="AE126" s="2">
         <v>50</v>
       </c>
-      <c r="AF126" s="16"/>
+      <c r="AF126" s="29"/>
       <c r="AG126" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="2:33">
+    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="D127" s="13">
         <v>124</v>
       </c>
@@ -6392,15 +6817,21 @@
       <c r="AE127" s="2">
         <v>8</v>
       </c>
-      <c r="AF127" s="16"/>
+      <c r="AF127" s="29"/>
       <c r="AG127" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="2:33">
+    <row r="128" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="D128" s="13">
         <v>125</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="H128" s="3"/>
       <c r="AC128" s="5">
@@ -6412,13 +6843,16 @@
       <c r="AE128" s="2">
         <v>8</v>
       </c>
-      <c r="AF128" s="16"/>
+      <c r="AF128" s="29"/>
       <c r="AG128" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="2:33">
+    <row r="129" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="D129" s="13">
         <v>126</v>
       </c>
@@ -6432,15 +6866,18 @@
       <c r="AE129" s="2">
         <v>25</v>
       </c>
-      <c r="AF129" s="16" t="s">
+      <c r="AF129" s="29" t="s">
         <v>229</v>
       </c>
       <c r="AG129" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:33">
+    <row r="130" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="D130" s="13">
         <v>127</v>
       </c>
@@ -6454,13 +6891,16 @@
       <c r="AE130" s="2">
         <v>180</v>
       </c>
-      <c r="AF130" s="16"/>
+      <c r="AF130" s="29"/>
       <c r="AG130" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="2:33">
+    <row r="131" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="D131" s="13">
         <v>128</v>
       </c>
@@ -6474,12 +6914,12 @@
       <c r="AE131" s="2">
         <v>40</v>
       </c>
-      <c r="AF131" s="16"/>
+      <c r="AF131" s="29"/>
       <c r="AG131" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="2:33">
+    <row r="132" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="D132" s="13">
         <v>129</v>
@@ -6494,12 +6934,12 @@
       <c r="AE132" s="2">
         <v>8</v>
       </c>
-      <c r="AF132" s="16"/>
+      <c r="AF132" s="29"/>
       <c r="AG132" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="2:33">
+    <row r="133" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="H133" s="3"/>
       <c r="AC133" s="5">
@@ -6511,14 +6951,14 @@
       <c r="AE133" s="2">
         <v>56</v>
       </c>
-      <c r="AF133" s="16" t="s">
+      <c r="AF133" s="29" t="s">
         <v>234</v>
       </c>
       <c r="AG133" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="2:33">
+    <row r="134" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="H134" s="3"/>
       <c r="AC134" s="5">
@@ -6530,12 +6970,12 @@
       <c r="AE134" s="2">
         <v>30</v>
       </c>
-      <c r="AF134" s="16"/>
+      <c r="AF134" s="29"/>
       <c r="AG134" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="2:33">
+    <row r="135" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="H135" s="3"/>
       <c r="AC135" s="5">
@@ -6547,14 +6987,14 @@
       <c r="AE135" s="2">
         <v>30</v>
       </c>
-      <c r="AF135" s="16" t="s">
+      <c r="AF135" s="29" t="s">
         <v>237</v>
       </c>
       <c r="AG135" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="2:33">
+    <row r="136" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="H136" s="3"/>
       <c r="AC136" s="5">
@@ -6566,12 +7006,12 @@
       <c r="AE136" s="2">
         <v>30</v>
       </c>
-      <c r="AF136" s="16"/>
+      <c r="AF136" s="29"/>
       <c r="AG136" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="2:33">
+    <row r="137" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="H137" s="3"/>
       <c r="AC137" s="5">
@@ -6590,7 +7030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="2:33">
+    <row r="138" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="H138" s="3"/>
       <c r="AC138" s="5">
@@ -6602,14 +7042,14 @@
       <c r="AE138" s="2">
         <v>80</v>
       </c>
-      <c r="AF138" s="16" t="s">
+      <c r="AF138" s="29" t="s">
         <v>243</v>
       </c>
       <c r="AG138" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="2:33">
+    <row r="139" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="H139" s="3"/>
       <c r="AC139" s="5">
@@ -6621,12 +7061,12 @@
       <c r="AE139" s="2">
         <v>80</v>
       </c>
-      <c r="AF139" s="16"/>
+      <c r="AF139" s="29"/>
       <c r="AG139" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="2:33">
+    <row r="140" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="H140" s="3"/>
       <c r="AC140" s="5">
@@ -6638,12 +7078,12 @@
       <c r="AE140" s="2">
         <v>5</v>
       </c>
-      <c r="AF140" s="16"/>
+      <c r="AF140" s="29"/>
       <c r="AG140" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="2:33">
+    <row r="141" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="H141" s="3"/>
       <c r="AC141" s="5">
@@ -6655,12 +7095,12 @@
       <c r="AE141" s="2">
         <v>0</v>
       </c>
-      <c r="AF141" s="16"/>
+      <c r="AF141" s="29"/>
       <c r="AG141" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="2:33">
+    <row r="142" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="H142" s="3"/>
       <c r="AC142" s="5">
@@ -6672,12 +7112,12 @@
       <c r="AE142" s="2">
         <v>64</v>
       </c>
-      <c r="AF142" s="16"/>
+      <c r="AF142" s="29"/>
       <c r="AG142" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="2:33">
+    <row r="143" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="H143" s="3"/>
       <c r="AC143" s="5">
@@ -6689,12 +7129,12 @@
       <c r="AE143" s="2">
         <v>60</v>
       </c>
-      <c r="AF143" s="16"/>
+      <c r="AF143" s="29"/>
       <c r="AG143" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="2:33">
+    <row r="144" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="H144" s="3"/>
       <c r="AC144" s="5">
@@ -6706,12 +7146,12 @@
       <c r="AE144" s="2">
         <v>5</v>
       </c>
-      <c r="AF144" s="16"/>
+      <c r="AF144" s="29"/>
       <c r="AG144" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="2:33">
+    <row r="145" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="H145" s="3"/>
       <c r="AC145" s="5">
@@ -6723,12 +7163,12 @@
       <c r="AE145" s="2">
         <v>0</v>
       </c>
-      <c r="AF145" s="16"/>
+      <c r="AF145" s="29"/>
       <c r="AG145" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="2:33">
+    <row r="146" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="H146" s="3"/>
       <c r="AC146" s="5">
@@ -6740,12 +7180,12 @@
       <c r="AE146" s="2">
         <v>1</v>
       </c>
-      <c r="AF146" s="16"/>
+      <c r="AF146" s="29"/>
       <c r="AG146" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="2:33">
+    <row r="147" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="H147" s="3"/>
       <c r="AC147" s="5">
@@ -6757,12 +7197,12 @@
       <c r="AE147" s="2">
         <v>20</v>
       </c>
-      <c r="AF147" s="16"/>
+      <c r="AF147" s="29"/>
       <c r="AG147" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="2:33">
+    <row r="148" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="H148" s="3"/>
       <c r="AC148" s="5">
@@ -6774,14 +7214,14 @@
       <c r="AE148" s="2">
         <v>80</v>
       </c>
-      <c r="AF148" s="16" t="s">
+      <c r="AF148" s="29" t="s">
         <v>264</v>
       </c>
       <c r="AG148" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="2:33">
+    <row r="149" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="H149" s="3"/>
       <c r="AC149" s="5">
@@ -6793,12 +7233,12 @@
       <c r="AE149" s="2">
         <v>64</v>
       </c>
-      <c r="AF149" s="16"/>
+      <c r="AF149" s="29"/>
       <c r="AG149" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="2:33">
+    <row r="150" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="H150" s="3"/>
       <c r="AC150" s="5">
@@ -6810,12 +7250,12 @@
       <c r="AE150" s="2">
         <v>5</v>
       </c>
-      <c r="AF150" s="16"/>
+      <c r="AF150" s="29"/>
       <c r="AG150" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="2:33">
+    <row r="151" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="H151" s="3"/>
       <c r="AC151" s="5">
@@ -6827,12 +7267,12 @@
       <c r="AE151" s="2">
         <v>0</v>
       </c>
-      <c r="AF151" s="16"/>
+      <c r="AF151" s="29"/>
       <c r="AG151" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="2:33">
+    <row r="152" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="H152" s="3"/>
       <c r="AC152" s="5">
@@ -6844,12 +7284,12 @@
       <c r="AE152" s="2">
         <v>64</v>
       </c>
-      <c r="AF152" s="16"/>
+      <c r="AF152" s="29"/>
       <c r="AG152" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="2:33">
+    <row r="153" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="H153" s="3"/>
       <c r="AC153" s="5">
@@ -6861,12 +7301,12 @@
       <c r="AE153" s="2">
         <v>60</v>
       </c>
-      <c r="AF153" s="16"/>
+      <c r="AF153" s="29"/>
       <c r="AG153" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="2:33">
+    <row r="154" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="H154" s="3"/>
       <c r="AC154" s="5">
@@ -6878,12 +7318,12 @@
       <c r="AE154" s="2">
         <v>5</v>
       </c>
-      <c r="AF154" s="16"/>
+      <c r="AF154" s="29"/>
       <c r="AG154" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="2:33">
+    <row r="155" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="H155" s="3"/>
       <c r="AC155" s="5">
@@ -6895,12 +7335,12 @@
       <c r="AE155" s="2">
         <v>0</v>
       </c>
-      <c r="AF155" s="16"/>
+      <c r="AF155" s="29"/>
       <c r="AG155" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="2:33">
+    <row r="156" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="H156" s="3"/>
       <c r="AC156" s="5">
@@ -6912,12 +7352,12 @@
       <c r="AE156" s="2">
         <v>1</v>
       </c>
-      <c r="AF156" s="16"/>
+      <c r="AF156" s="29"/>
       <c r="AG156" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="157" spans="2:33">
+    <row r="157" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="H157" s="3"/>
       <c r="AC157" s="5">
@@ -6929,12 +7369,12 @@
       <c r="AE157" s="2">
         <v>20</v>
       </c>
-      <c r="AF157" s="16"/>
+      <c r="AF157" s="29"/>
       <c r="AG157" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="158" spans="2:33">
+    <row r="158" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="H158" s="3"/>
       <c r="AC158" s="5">
@@ -6946,14 +7386,14 @@
       <c r="AE158" s="2">
         <v>64</v>
       </c>
-      <c r="AF158" s="16" t="s">
+      <c r="AF158" s="29" t="s">
         <v>275</v>
       </c>
       <c r="AG158" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="159" spans="2:33">
+    <row r="159" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="H159" s="3"/>
       <c r="AC159" s="5">
@@ -6965,12 +7405,12 @@
       <c r="AE159" s="2">
         <v>60</v>
       </c>
-      <c r="AF159" s="16"/>
+      <c r="AF159" s="29"/>
       <c r="AG159" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="160" spans="2:33">
+    <row r="160" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="H160" s="3"/>
       <c r="AC160" s="5">
@@ -6982,12 +7422,12 @@
       <c r="AE160" s="2">
         <v>5</v>
       </c>
-      <c r="AF160" s="16"/>
+      <c r="AF160" s="29"/>
       <c r="AG160" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="2:33">
+    <row r="161" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="H161" s="3"/>
       <c r="AC161" s="5">
@@ -6999,12 +7439,12 @@
       <c r="AE161" s="2">
         <v>0</v>
       </c>
-      <c r="AF161" s="16"/>
+      <c r="AF161" s="29"/>
       <c r="AG161" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="2:33">
+    <row r="162" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="H162" s="3"/>
       <c r="AC162" s="5">
@@ -7016,12 +7456,12 @@
       <c r="AE162" s="2">
         <v>64</v>
       </c>
-      <c r="AF162" s="16"/>
+      <c r="AF162" s="29"/>
       <c r="AG162" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="2:33">
+    <row r="163" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="H163" s="3"/>
       <c r="AC163" s="5">
@@ -7033,12 +7473,12 @@
       <c r="AE163" s="2">
         <v>60</v>
       </c>
-      <c r="AF163" s="16"/>
+      <c r="AF163" s="29"/>
       <c r="AG163" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="2:33">
+    <row r="164" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="H164" s="3"/>
       <c r="AC164" s="5">
@@ -7050,12 +7490,12 @@
       <c r="AE164" s="2">
         <v>5</v>
       </c>
-      <c r="AF164" s="16"/>
+      <c r="AF164" s="29"/>
       <c r="AG164" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="2:33">
+    <row r="165" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="H165" s="3"/>
       <c r="AC165" s="5">
@@ -7067,12 +7507,12 @@
       <c r="AE165" s="2">
         <v>0</v>
       </c>
-      <c r="AF165" s="16"/>
+      <c r="AF165" s="29"/>
       <c r="AG165" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="2:33">
+    <row r="166" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="H166" s="3"/>
       <c r="AC166" s="5">
@@ -7084,12 +7524,12 @@
       <c r="AE166" s="2">
         <v>1</v>
       </c>
-      <c r="AF166" s="16"/>
+      <c r="AF166" s="29"/>
       <c r="AG166" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="167" spans="2:33">
+    <row r="167" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="H167" s="3"/>
       <c r="AC167" s="5">
@@ -7101,12 +7541,12 @@
       <c r="AE167" s="2">
         <v>20</v>
       </c>
-      <c r="AF167" s="16"/>
+      <c r="AF167" s="29"/>
       <c r="AG167" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="2:33">
+    <row r="168" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="H168" s="3"/>
       <c r="AC168" s="5">
@@ -7118,14 +7558,14 @@
       <c r="AE168" s="2">
         <v>64</v>
       </c>
-      <c r="AF168" s="16" t="s">
+      <c r="AF168" s="29" t="s">
         <v>286</v>
       </c>
       <c r="AG168" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="169" spans="2:33">
+    <row r="169" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="H169" s="3"/>
       <c r="AC169" s="5">
@@ -7137,12 +7577,12 @@
       <c r="AE169" s="2">
         <v>60</v>
       </c>
-      <c r="AF169" s="16"/>
+      <c r="AF169" s="29"/>
       <c r="AG169" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="2:33">
+    <row r="170" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="H170" s="3"/>
       <c r="AC170" s="5">
@@ -7154,12 +7594,12 @@
       <c r="AE170" s="2">
         <v>5</v>
       </c>
-      <c r="AF170" s="16"/>
+      <c r="AF170" s="29"/>
       <c r="AG170" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="2:33">
+    <row r="171" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="H171" s="3"/>
       <c r="AC171" s="5">
@@ -7171,12 +7611,12 @@
       <c r="AE171" s="2">
         <v>0</v>
       </c>
-      <c r="AF171" s="16"/>
+      <c r="AF171" s="29"/>
       <c r="AG171" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="2:33">
+    <row r="172" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="H172" s="3"/>
       <c r="AC172" s="5">
@@ -7188,12 +7628,12 @@
       <c r="AE172" s="2">
         <v>64</v>
       </c>
-      <c r="AF172" s="16"/>
+      <c r="AF172" s="29"/>
       <c r="AG172" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="2:33">
+    <row r="173" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="H173" s="3"/>
       <c r="AC173" s="5">
@@ -7205,12 +7645,12 @@
       <c r="AE173" s="2">
         <v>60</v>
       </c>
-      <c r="AF173" s="16"/>
+      <c r="AF173" s="29"/>
       <c r="AG173" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="174" spans="2:33">
+    <row r="174" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="H174" s="3"/>
       <c r="AC174" s="5">
@@ -7222,12 +7662,12 @@
       <c r="AE174" s="2">
         <v>5</v>
       </c>
-      <c r="AF174" s="16"/>
+      <c r="AF174" s="29"/>
       <c r="AG174" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="2:33">
+    <row r="175" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="H175" s="3"/>
       <c r="AC175" s="5">
@@ -7239,12 +7679,12 @@
       <c r="AE175" s="2">
         <v>0</v>
       </c>
-      <c r="AF175" s="16"/>
+      <c r="AF175" s="29"/>
       <c r="AG175" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="2:33">
+    <row r="176" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="H176" s="3"/>
       <c r="AC176" s="5">
@@ -7256,12 +7696,12 @@
       <c r="AE176" s="2">
         <v>1</v>
       </c>
-      <c r="AF176" s="16"/>
+      <c r="AF176" s="29"/>
       <c r="AG176" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="177" spans="2:33">
+    <row r="177" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="H177" s="3"/>
       <c r="AC177" s="5">
@@ -7273,12 +7713,12 @@
       <c r="AE177" s="2">
         <v>20</v>
       </c>
-      <c r="AF177" s="16"/>
+      <c r="AF177" s="29"/>
       <c r="AG177" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="2:33">
+    <row r="178" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="H178" s="3"/>
       <c r="AC178" s="5">
@@ -7290,14 +7730,14 @@
       <c r="AE178" s="2">
         <v>0</v>
       </c>
-      <c r="AF178" s="16" t="s">
+      <c r="AF178" s="29" t="s">
         <v>297</v>
       </c>
       <c r="AG178" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="179" spans="2:33">
+    <row r="179" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="H179" s="3"/>
       <c r="AC179" s="5">
@@ -7309,12 +7749,12 @@
       <c r="AE179" s="2">
         <v>22</v>
       </c>
-      <c r="AF179" s="16"/>
+      <c r="AF179" s="29"/>
       <c r="AG179" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="2:33">
+    <row r="180" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="H180" s="3"/>
       <c r="AC180" s="5">
@@ -7326,12 +7766,12 @@
       <c r="AE180" s="2">
         <v>22</v>
       </c>
-      <c r="AF180" s="16"/>
+      <c r="AF180" s="29"/>
       <c r="AG180" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="2:33">
+    <row r="181" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="H181" s="3"/>
       <c r="AC181" s="5">
@@ -7343,12 +7783,12 @@
       <c r="AE181" s="2">
         <v>69</v>
       </c>
-      <c r="AF181" s="16"/>
+      <c r="AF181" s="29"/>
       <c r="AG181" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="2:33">
+    <row r="182" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="H182" s="3"/>
       <c r="AC182" s="5">
@@ -7360,12 +7800,12 @@
       <c r="AE182" s="2">
         <v>69</v>
       </c>
-      <c r="AF182" s="16"/>
+      <c r="AF182" s="29"/>
       <c r="AG182" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="2:33">
+    <row r="183" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="H183" s="3"/>
       <c r="AC183" s="5">
@@ -7377,12 +7817,12 @@
       <c r="AE183" s="2">
         <v>40</v>
       </c>
-      <c r="AF183" s="16"/>
+      <c r="AF183" s="29"/>
       <c r="AG183" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="2:33">
+    <row r="184" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="H184" s="3"/>
       <c r="AC184" s="5">
@@ -7394,12 +7834,12 @@
       <c r="AE184" s="2">
         <v>28</v>
       </c>
-      <c r="AF184" s="16"/>
+      <c r="AF184" s="29"/>
       <c r="AG184" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="2:33">
+    <row r="185" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="H185" s="3"/>
       <c r="AC185" s="5">
@@ -7411,12 +7851,12 @@
       <c r="AE185" s="2">
         <v>12</v>
       </c>
-      <c r="AF185" s="16"/>
+      <c r="AF185" s="29"/>
       <c r="AG185" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="186" spans="2:33">
+    <row r="186" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="H186" s="3"/>
       <c r="AC186" s="5">
@@ -7428,12 +7868,12 @@
       <c r="AE186" s="2">
         <v>45</v>
       </c>
-      <c r="AF186" s="16"/>
+      <c r="AF186" s="29"/>
       <c r="AG186" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="187" spans="2:33">
+    <row r="187" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="H187" s="3"/>
       <c r="AC187" s="5">
@@ -7445,12 +7885,12 @@
       <c r="AE187" s="2">
         <v>12</v>
       </c>
-      <c r="AF187" s="16"/>
+      <c r="AF187" s="29"/>
       <c r="AG187" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="188" spans="2:33">
+    <row r="188" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="H188" s="3"/>
       <c r="AC188" s="5">
@@ -7462,12 +7902,12 @@
       <c r="AE188" s="2">
         <v>8</v>
       </c>
-      <c r="AF188" s="16"/>
+      <c r="AF188" s="29"/>
       <c r="AG188" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="2:33">
+    <row r="189" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="H189" s="3"/>
       <c r="AC189" s="5">
@@ -7479,12 +7919,12 @@
       <c r="AE189" s="2">
         <v>0</v>
       </c>
-      <c r="AF189" s="16"/>
+      <c r="AF189" s="29"/>
       <c r="AG189" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="2:33">
+    <row r="190" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="H190" s="3"/>
       <c r="AC190" s="5">
@@ -7496,12 +7936,12 @@
       <c r="AE190" s="2">
         <v>0</v>
       </c>
-      <c r="AF190" s="16"/>
+      <c r="AF190" s="29"/>
       <c r="AG190" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="191" spans="2:33">
+    <row r="191" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="H191" s="3"/>
       <c r="AC191" s="5">
@@ -7513,12 +7953,12 @@
       <c r="AE191" s="2">
         <v>0</v>
       </c>
-      <c r="AF191" s="16"/>
+      <c r="AF191" s="29"/>
       <c r="AG191" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="192" spans="2:33">
+    <row r="192" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="H192" s="3"/>
       <c r="AC192" s="5">
@@ -7530,12 +7970,12 @@
       <c r="AE192" s="2">
         <v>0</v>
       </c>
-      <c r="AF192" s="16"/>
+      <c r="AF192" s="29"/>
       <c r="AG192" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="2:33">
+    <row r="193" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="H193" s="3"/>
       <c r="AC193" s="5">
@@ -7547,12 +7987,12 @@
       <c r="AE193" s="2">
         <v>0</v>
       </c>
-      <c r="AF193" s="16"/>
+      <c r="AF193" s="29"/>
       <c r="AG193" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="2:33">
+    <row r="194" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="H194" s="3"/>
       <c r="AC194" s="5">
@@ -7564,12 +8004,12 @@
       <c r="AE194" s="2">
         <v>0</v>
       </c>
-      <c r="AF194" s="16"/>
+      <c r="AF194" s="29"/>
       <c r="AG194" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="2:33">
+    <row r="195" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="H195" s="3"/>
       <c r="AC195" s="5">
@@ -7581,12 +8021,12 @@
       <c r="AE195" s="2">
         <v>0</v>
       </c>
-      <c r="AF195" s="16"/>
+      <c r="AF195" s="29"/>
       <c r="AG195" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="2:33">
+    <row r="196" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="H196" s="3"/>
       <c r="AC196" s="5">
@@ -7598,12 +8038,12 @@
       <c r="AE196" s="2">
         <v>0</v>
       </c>
-      <c r="AF196" s="16"/>
+      <c r="AF196" s="29"/>
       <c r="AG196" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="2:33">
+    <row r="197" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="H197" s="3"/>
       <c r="AC197" s="5">
@@ -7615,12 +8055,12 @@
       <c r="AE197" s="2">
         <v>0</v>
       </c>
-      <c r="AF197" s="16"/>
+      <c r="AF197" s="29"/>
       <c r="AG197" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="198" spans="2:33">
+    <row r="198" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="H198" s="3"/>
       <c r="AC198" s="5">
@@ -7632,12 +8072,12 @@
       <c r="AE198" s="2">
         <v>0</v>
       </c>
-      <c r="AF198" s="16"/>
+      <c r="AF198" s="29"/>
       <c r="AG198" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="199" spans="2:33">
+    <row r="199" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="H199" s="3"/>
       <c r="AC199" s="5">
@@ -7649,12 +8089,12 @@
       <c r="AE199" s="2">
         <v>0</v>
       </c>
-      <c r="AF199" s="16"/>
+      <c r="AF199" s="29"/>
       <c r="AG199" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="2:33">
+    <row r="200" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="H200" s="3"/>
       <c r="AC200" s="5">
@@ -7666,12 +8106,12 @@
       <c r="AE200" s="2">
         <v>0</v>
       </c>
-      <c r="AF200" s="16"/>
+      <c r="AF200" s="29"/>
       <c r="AG200" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="2:33">
+    <row r="201" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="H201" s="3"/>
       <c r="AC201" s="5">
@@ -7683,12 +8123,12 @@
       <c r="AE201" s="2">
         <v>0</v>
       </c>
-      <c r="AF201" s="16"/>
+      <c r="AF201" s="29"/>
       <c r="AG201" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="2:33">
+    <row r="202" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="H202" s="3"/>
       <c r="AC202" s="5">
@@ -7700,12 +8140,12 @@
       <c r="AE202" s="2">
         <v>0</v>
       </c>
-      <c r="AF202" s="16"/>
+      <c r="AF202" s="29"/>
       <c r="AG202" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="2:33">
+    <row r="203" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="H203" s="3"/>
       <c r="AC203" s="5">
@@ -7717,12 +8157,12 @@
       <c r="AE203" s="2">
         <v>0</v>
       </c>
-      <c r="AF203" s="16"/>
+      <c r="AF203" s="29"/>
       <c r="AG203" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:33">
+    <row r="204" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="H204" s="3"/>
       <c r="AC204" s="5">
@@ -7734,12 +8174,12 @@
       <c r="AE204" s="2">
         <v>0</v>
       </c>
-      <c r="AF204" s="16"/>
+      <c r="AF204" s="29"/>
       <c r="AG204" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="205" spans="2:33">
+    <row r="205" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="H205" s="3"/>
       <c r="AC205" s="5">
@@ -7751,12 +8191,12 @@
       <c r="AE205" s="2">
         <v>0</v>
       </c>
-      <c r="AF205" s="16"/>
+      <c r="AF205" s="29"/>
       <c r="AG205" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="206" spans="2:33">
+    <row r="206" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="H206" s="3"/>
       <c r="AC206" s="5">
@@ -7768,12 +8208,12 @@
       <c r="AE206" s="2">
         <v>0</v>
       </c>
-      <c r="AF206" s="16"/>
+      <c r="AF206" s="29"/>
       <c r="AG206" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="2:33">
+    <row r="207" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="H207" s="3"/>
       <c r="AC207" s="5">
@@ -7785,12 +8225,12 @@
       <c r="AE207" s="2">
         <v>0</v>
       </c>
-      <c r="AF207" s="16"/>
+      <c r="AF207" s="29"/>
       <c r="AG207" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="208" spans="2:33">
+    <row r="208" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="H208" s="3"/>
       <c r="AC208" s="5">
@@ -7802,12 +8242,12 @@
       <c r="AE208" s="2">
         <v>0</v>
       </c>
-      <c r="AF208" s="16"/>
+      <c r="AF208" s="29"/>
       <c r="AG208" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="2:33">
+    <row r="209" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="H209" s="3"/>
       <c r="AC209" s="5">
@@ -7819,63 +8259,78 @@
       <c r="AE209" s="2">
         <v>0</v>
       </c>
-      <c r="AF209" s="16"/>
+      <c r="AF209" s="29"/>
       <c r="AG209" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="210" spans="2:33">
+    <row r="210" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="H210" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J8:Y8"/>
-    <mergeCell ref="J9:Y9"/>
-    <mergeCell ref="AF9:AF13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J10:Y10"/>
-    <mergeCell ref="J11:Y11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="J12:Y12"/>
-    <mergeCell ref="J13:Y13"/>
-    <mergeCell ref="AF4:AF8"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:Y6"/>
-    <mergeCell ref="J7:Y7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="J14:Y14"/>
-    <mergeCell ref="AF14:AF18"/>
-    <mergeCell ref="J15:Y15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="AF19:AF23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="J34:Y34"/>
-    <mergeCell ref="AF34:AF38"/>
-    <mergeCell ref="J35:Y35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="S36:Y36"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="B89:B112"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="AF158:AF167"/>
+    <mergeCell ref="AF168:AF177"/>
+    <mergeCell ref="AF178:AF209"/>
+    <mergeCell ref="AF133:AF134"/>
+    <mergeCell ref="AF135:AF136"/>
+    <mergeCell ref="AF138:AF147"/>
+    <mergeCell ref="AF148:AF157"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="AF125:AF128"/>
+    <mergeCell ref="AF129:AF132"/>
+    <mergeCell ref="AF95:AF99"/>
+    <mergeCell ref="AF100:AF104"/>
+    <mergeCell ref="AF105:AF109"/>
+    <mergeCell ref="AF110:AF114"/>
+    <mergeCell ref="AF115:AF119"/>
+    <mergeCell ref="AF120:AF124"/>
+    <mergeCell ref="AF65:AF69"/>
+    <mergeCell ref="AF70:AF74"/>
+    <mergeCell ref="AF75:AF79"/>
+    <mergeCell ref="AF80:AF84"/>
+    <mergeCell ref="AF85:AF89"/>
+    <mergeCell ref="AF90:AF94"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="AF44:AF48"/>
+    <mergeCell ref="AF49:AF53"/>
+    <mergeCell ref="AF54:AF59"/>
+    <mergeCell ref="AF60:AF64"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="S38:Y38"/>
+    <mergeCell ref="J39:R39"/>
+    <mergeCell ref="S39:Y39"/>
+    <mergeCell ref="AF39:AF43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
     <mergeCell ref="B4:B23"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="J4:Q4"/>
@@ -7900,67 +8355,52 @@
     <mergeCell ref="R25:Y25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="J26:Y26"/>
-    <mergeCell ref="AF44:AF48"/>
-    <mergeCell ref="AF49:AF53"/>
-    <mergeCell ref="AF54:AF59"/>
-    <mergeCell ref="AF60:AF64"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="S38:Y38"/>
-    <mergeCell ref="J39:R39"/>
-    <mergeCell ref="S39:Y39"/>
-    <mergeCell ref="AF39:AF43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="AF125:AF128"/>
-    <mergeCell ref="AF129:AF132"/>
-    <mergeCell ref="AF95:AF99"/>
-    <mergeCell ref="AF100:AF104"/>
-    <mergeCell ref="AF105:AF109"/>
-    <mergeCell ref="AF110:AF114"/>
-    <mergeCell ref="AF115:AF119"/>
-    <mergeCell ref="AF120:AF124"/>
-    <mergeCell ref="AF65:AF69"/>
-    <mergeCell ref="AF70:AF74"/>
-    <mergeCell ref="AF75:AF79"/>
-    <mergeCell ref="AF80:AF84"/>
-    <mergeCell ref="AF85:AF89"/>
-    <mergeCell ref="AF90:AF94"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="AF158:AF167"/>
-    <mergeCell ref="AF168:AF177"/>
-    <mergeCell ref="AF178:AF209"/>
-    <mergeCell ref="AF133:AF134"/>
-    <mergeCell ref="AF135:AF136"/>
-    <mergeCell ref="AF138:AF147"/>
-    <mergeCell ref="AF148:AF157"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B89:B112"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="J34:Y34"/>
+    <mergeCell ref="AF34:AF38"/>
+    <mergeCell ref="J35:Y35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="S36:Y36"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="J14:Y14"/>
+    <mergeCell ref="AF14:AF18"/>
+    <mergeCell ref="J15:Y15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="AF19:AF23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J8:Y8"/>
+    <mergeCell ref="J9:Y9"/>
+    <mergeCell ref="AF9:AF13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J10:Y10"/>
+    <mergeCell ref="J11:Y11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J12:Y12"/>
+    <mergeCell ref="J13:Y13"/>
+    <mergeCell ref="AF4:AF8"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:Y6"/>
+    <mergeCell ref="J7:Y7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7969,7 +8409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B4:I35"/>
   <sheetViews>
@@ -7977,12 +8417,12 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>368</v>
       </c>
@@ -8008,7 +8448,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>200</v>
       </c>
@@ -8037,7 +8477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>300</v>
       </c>
@@ -8066,7 +8506,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>400</v>
       </c>
@@ -8095,7 +8535,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>500</v>
       </c>
@@ -8124,7 +8564,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>600</v>
       </c>
@@ -8153,7 +8593,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>700</v>
       </c>
@@ -8182,7 +8622,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>800</v>
       </c>
@@ -8211,7 +8651,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>900</v>
       </c>
@@ -8240,7 +8680,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>1000</v>
       </c>
@@ -8269,7 +8709,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>1100</v>
       </c>
@@ -8298,7 +8738,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>1200</v>
       </c>
@@ -8327,7 +8767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>1300</v>
       </c>
@@ -8356,7 +8796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>1400</v>
       </c>
@@ -8385,7 +8825,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>1500</v>
       </c>
@@ -8414,7 +8854,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1600</v>
       </c>
@@ -8443,7 +8883,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1700</v>
       </c>
@@ -8472,7 +8912,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1800</v>
       </c>
@@ -8501,7 +8941,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>1900</v>
       </c>
@@ -8530,7 +8970,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>2000</v>
       </c>
@@ -8559,7 +8999,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>2100</v>
       </c>
@@ -8588,7 +9028,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>2200</v>
       </c>
@@ -8617,7 +9057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>2300</v>
       </c>
@@ -8646,7 +9086,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>2400</v>
       </c>
@@ -8675,7 +9115,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>2500</v>
       </c>
@@ -8704,7 +9144,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>2600</v>
       </c>
@@ -8733,7 +9173,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>2700</v>
       </c>
@@ -8762,7 +9202,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>2800</v>
       </c>
@@ -8791,7 +9231,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>2900</v>
       </c>
@@ -8820,7 +9260,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>3000</v>
       </c>
@@ -8849,7 +9289,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>3100</v>
       </c>
@@ -8878,7 +9318,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>3200</v>
       </c>
@@ -8915,7 +9355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B4:S35"/>
   <sheetViews>
@@ -8923,12 +9363,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>368</v>
       </c>
@@ -8957,7 +9397,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>200</v>
       </c>
@@ -9001,7 +9441,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <v>300</v>
       </c>
@@ -9045,7 +9485,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>400</v>
       </c>
@@ -9089,7 +9529,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>500</v>
       </c>
@@ -9133,7 +9573,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>600</v>
       </c>
@@ -9177,7 +9617,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>700</v>
       </c>
@@ -9209,7 +9649,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>800</v>
       </c>
@@ -9238,7 +9678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>900</v>
       </c>
@@ -9267,7 +9707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>1000</v>
       </c>
@@ -9299,7 +9739,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>1100</v>
       </c>
@@ -9328,7 +9768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>1200</v>
       </c>
@@ -9357,7 +9797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1300</v>
       </c>
@@ -9389,7 +9829,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>1400</v>
       </c>
@@ -9448,7 +9888,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>1500</v>
       </c>
@@ -9507,7 +9947,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>1600</v>
       </c>
@@ -9566,7 +10006,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>1700</v>
       </c>
@@ -9625,7 +10065,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>1800</v>
       </c>
@@ -9684,7 +10124,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>1900</v>
       </c>
@@ -9716,7 +10156,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>2000</v>
       </c>
@@ -9748,7 +10188,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>2100</v>
       </c>
@@ -9780,7 +10220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>2200</v>
       </c>
@@ -9812,7 +10252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>2300</v>
       </c>
@@ -9841,7 +10281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>2400</v>
       </c>
@@ -9870,7 +10310,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2500</v>
       </c>
@@ -9899,7 +10339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>2600</v>
       </c>
@@ -9928,7 +10368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>2700</v>
       </c>
@@ -9957,7 +10397,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>2800</v>
       </c>
@@ -9986,7 +10426,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>2900</v>
       </c>
@@ -10015,7 +10455,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>3000</v>
       </c>
@@ -10044,7 +10484,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>3100</v>
       </c>
@@ -10073,7 +10513,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>3200</v>
       </c>
@@ -10110,7 +10550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:E28"/>
   <sheetViews>
@@ -10118,9 +10558,9 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2600</v>
       </c>
@@ -10129,7 +10569,7 @@
         <v>23.076923076923077</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2500</v>
       </c>
@@ -10141,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2400</v>
       </c>
@@ -10153,7 +10593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2300</v>
       </c>
@@ -10165,7 +10605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2200</v>
       </c>
@@ -10177,7 +10617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2100</v>
       </c>
@@ -10189,7 +10629,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2000</v>
       </c>
@@ -10201,7 +10641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1900</v>
       </c>
@@ -10213,7 +10653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1800</v>
       </c>
@@ -10225,7 +10665,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1700</v>
       </c>
@@ -10237,7 +10677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1600</v>
       </c>
@@ -10249,7 +10689,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1500</v>
       </c>
@@ -10261,7 +10701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1400</v>
       </c>
@@ -10273,7 +10713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1300</v>
       </c>
@@ -10285,7 +10725,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1200</v>
       </c>
@@ -10297,7 +10737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1100</v>
       </c>
@@ -10306,7 +10746,7 @@
         <v>54.545454545454547</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -10318,7 +10758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>900</v>
       </c>
@@ -10327,7 +10767,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>800</v>
       </c>
@@ -10339,7 +10779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>700</v>
       </c>
@@ -10348,7 +10788,7 @@
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>600</v>
       </c>
@@ -10360,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>500</v>
       </c>
@@ -10369,7 +10809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>400</v>
       </c>
@@ -10381,7 +10821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>300</v>
       </c>
@@ -10390,7 +10830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>200</v>
       </c>
@@ -10406,4 +10846,290 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="20">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>